--- a/data/trans_orig/P79A10_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A10_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>25391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17044</v>
+        <v>16969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31880</v>
+        <v>32183</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6337734349832995</v>
+        <v>0.6337734349832996</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4254240987622281</v>
+        <v>0.4235551783665061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7957498441049191</v>
+        <v>0.8033150118253916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -762,19 +762,19 @@
         <v>51760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46998</v>
+        <v>47479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54667</v>
+        <v>54859</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8987888329712699</v>
+        <v>0.89878883297127</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8160867715751245</v>
+        <v>0.8244533245222799</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9492671198653753</v>
+        <v>0.9525951686624954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -783,19 +783,19 @@
         <v>77151</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64183</v>
+        <v>65035</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85269</v>
+        <v>84746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7900629718874963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6572618384291057</v>
+        <v>0.665987522847814</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8731910140225405</v>
+        <v>0.8678353805215051</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8183</v>
+        <v>7880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23019</v>
+        <v>23094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3662265650167004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2042501558950812</v>
+        <v>0.1966849881746085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5745759012377726</v>
+        <v>0.5764448216334939</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>5829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2922</v>
+        <v>2730</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10591</v>
+        <v>10110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.10121116702873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05073288013462468</v>
+        <v>0.04740483133750464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1839132284248759</v>
+        <v>0.1755466754777199</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>20501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12383</v>
+        <v>12906</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33469</v>
+        <v>32617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2099370281125037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1268089859774593</v>
+        <v>0.1321646194784949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3427381615708943</v>
+        <v>0.3340124771521859</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>88775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76148</v>
+        <v>77146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96012</v>
+        <v>95942</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.853111147241161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7317728453089009</v>
+        <v>0.7413574278936593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9226630888575548</v>
+        <v>0.9219884368620211</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -979,19 +979,19 @@
         <v>59880</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51476</v>
+        <v>50220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66818</v>
+        <v>66422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7614198841850232</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6545534010932414</v>
+        <v>0.6385866579414408</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8496431147248401</v>
+        <v>0.8446039285088114</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -1000,19 +1000,19 @@
         <v>148654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134914</v>
+        <v>134682</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159255</v>
+        <v>159656</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.81364333125971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7384393089256498</v>
+        <v>0.7371688376646592</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.871665440307145</v>
+        <v>0.8738593047836004</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>15285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8048</v>
+        <v>8118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27912</v>
+        <v>26914</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1468888527588391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07733691114244501</v>
+        <v>0.07801156313797906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2682271546910989</v>
+        <v>0.2586425721063408</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1050,19 +1050,19 @@
         <v>18763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11825</v>
+        <v>12221</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27167</v>
+        <v>28423</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2385801158149769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1503568852751593</v>
+        <v>0.1553960714911889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3454465989067589</v>
+        <v>0.361413342058559</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1071,19 +1071,19 @@
         <v>34048</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23447</v>
+        <v>23046</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47788</v>
+        <v>48020</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.18635666874029</v>
+        <v>0.1863566687402901</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.128334559692855</v>
+        <v>0.1261406952163993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2615606910743503</v>
+        <v>0.2628311623353413</v>
       </c>
     </row>
     <row r="9">
@@ -1344,19 +1344,19 @@
         <v>127650</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113429</v>
+        <v>111155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138324</v>
+        <v>139101</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8099244944271486</v>
+        <v>0.8099244944271488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7196930135808057</v>
+        <v>0.7052665717691223</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8776493823390542</v>
+        <v>0.8825819602673148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -1365,19 +1365,19 @@
         <v>120360</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109460</v>
+        <v>109711</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128443</v>
+        <v>128303</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8303475713137558</v>
+        <v>0.8303475713137559</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7551531648356484</v>
+        <v>0.7568856540348119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8861120418391141</v>
+        <v>0.8851486054343913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>285</v>
@@ -1386,19 +1386,19 @@
         <v>248009</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>227916</v>
+        <v>229952</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>261093</v>
+        <v>261883</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8197088769221691</v>
+        <v>0.819708876922169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7532972638394984</v>
+        <v>0.7600265780192591</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.862950913996074</v>
+        <v>0.8655613211713549</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>29957</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19283</v>
+        <v>18506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44178</v>
+        <v>46452</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1900755055728512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.122350617660946</v>
+        <v>0.1174180397326852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2803069864191945</v>
+        <v>0.2947334282308774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -1436,19 +1436,19 @@
         <v>24591</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16508</v>
+        <v>16648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35491</v>
+        <v>35240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1696524286862442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1138879581608854</v>
+        <v>0.1148513945656087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2448468351643511</v>
+        <v>0.2431143459651882</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>49</v>
@@ -1457,19 +1457,19 @@
         <v>54549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41465</v>
+        <v>40675</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74642</v>
+        <v>72606</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1802911230778308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.137049086003926</v>
+        <v>0.1344386788286453</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.246702736160502</v>
+        <v>0.2399734219807409</v>
       </c>
     </row>
     <row r="15">
